--- a/Table/Table_xls/技能相关表/j技能表-复合/伙伴技能表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能表-复合/伙伴技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12675" windowHeight="12180"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2252,10 +2252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2326,9 +2326,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2339,8 +2362,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2355,24 +2426,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2384,30 +2440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2416,43 +2448,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2463,17 +2474,6 @@
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2540,13 +2540,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,25 +2642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,73 +2654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2678,19 +2684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,26 +2801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2845,6 +2825,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2859,6 +2850,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2867,10 +2867,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2879,7 +2879,7 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2888,127 +2888,127 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3678,29 +3678,29 @@
   <dimension ref="A1:AA255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K240" sqref="K240"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="3" width="16" customWidth="1"/>
     <col min="4" max="6" width="9" customWidth="1"/>
-    <col min="7" max="9" width="18.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="7" max="9" width="18.3727272727273" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.3727272727273" customWidth="1"/>
+    <col min="11" max="11" width="10.6272727272727" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="14.7545454545455" customWidth="1"/>
     <col min="14" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="75.875" customWidth="1"/>
-    <col min="20" max="20" width="25.25" customWidth="1"/>
+    <col min="19" max="19" width="75.8727272727273" customWidth="1"/>
+    <col min="20" max="20" width="25.2545454545455" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="176.25" customHeight="1" spans="1:27">
+    <row r="1" ht="66" customHeight="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16503,7 +16503,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -16520,7 +16520,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/技能相关表/j技能表-复合/伙伴技能表.xlsx
+++ b/Table/Table_xls/技能相关表/j技能表-复合/伙伴技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="12675" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2252,10 +2252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2326,14 +2326,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2341,7 +2363,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2355,40 +2424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2403,29 +2441,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2433,26 +2448,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2463,17 +2474,6 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2540,91 +2540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,7 +2564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,19 +2594,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2684,13 +2678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,6 +2801,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2825,17 +2845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2850,15 +2859,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2867,10 +2867,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2879,7 +2879,7 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2888,127 +2888,127 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3678,29 +3678,29 @@
   <dimension ref="A1:AA255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J230" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomRight" activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="16" customWidth="1"/>
     <col min="4" max="6" width="9" customWidth="1"/>
-    <col min="7" max="9" width="18.3727272727273" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12.3727272727273" customWidth="1"/>
-    <col min="11" max="11" width="10.6272727272727" customWidth="1"/>
+    <col min="7" max="9" width="18.375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="14.7545454545455" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="75.8727272727273" customWidth="1"/>
-    <col min="20" max="20" width="25.2545454545455" customWidth="1"/>
+    <col min="19" max="19" width="75.875" customWidth="1"/>
+    <col min="20" max="20" width="25.25" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="66" customHeight="1" spans="1:27">
+    <row r="1" ht="176.25" customHeight="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16503,7 +16503,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -16520,7 +16520,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
